--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1896607.244164848</v>
+        <v>1894719.662648446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10549550.85491939</v>
+        <v>10549550.8549194</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>101.1268811199842</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.88877949312982</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>399.3976635617693</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="C7" t="n">
-        <v>87.73425454431418</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>62.83647259524017</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>118.8460297402135</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229338</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017895</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185866</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>169.743810140442</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750029</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.47226067794314</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>42.18007463019089</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056516</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>43.2186128548929</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>10.90563841321747</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.0907985422234</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>907.0907985422234</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>548.825099935473</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>163.0368473372287</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>156.0913465880253</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843237</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843237</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582157</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,31 +4419,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>181.3053441250784</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.3053441250784</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.352320482495</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>857.0866218757444</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>471.2983692775002</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,40 +4653,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
         <v>1018.106519274536</v>
@@ -4790,64 +4790,64 @@
         <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2126.437531549183</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="X8" t="n">
-        <v>2522.073906861631</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615925</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,22 +5221,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305956</v>
+        <v>268.6754855415404</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,40 +5504,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324573</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,16 +5750,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>773.1661474848149</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>604.229964556908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>454.1133251445723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>306.2002315621792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>159.3102840642688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>159.3102840642688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>159.3102840642688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150547</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.8146123150547</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6057,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014291</v>
@@ -6294,7 +6294,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1456.310134567811</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1456.310134567811</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1167.181495781369</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>1167.181495781369</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W28" t="n">
-        <v>877.7643257444088</v>
+        <v>241.9805482336713</v>
       </c>
       <c r="X28" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6531,37 +6531,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.7453191938783</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>487.5700015473422</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473422</v>
+        <v>232.0013381767172</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463199</v>
+        <v>232.0013381767172</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>140.8722559601777</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818939</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>891.6646326049066</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.6329187427473</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6722,13 +6722,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6740,10 +6740,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7418,40 +7418,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110834</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506735</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451779</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735875</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>433.7515527292971</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.51353349283</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>62.794659289832</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>295.3773510571274</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542541</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.84084321165278</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.95700631227295</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338638</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>48.94698478632884</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>75.26883114644325</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>155.7407353534124</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338554</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>68.0716989799276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>159.6007603472626</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="9">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721358</v>
@@ -26326,28 +26326,28 @@
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="H2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>508527.6716815879</v>
+        <v>508527.6716815878</v>
       </c>
       <c r="L2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="M2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="N2" t="n">
         <v>513151.1061651764</v>
-      </c>
-      <c r="M2" t="n">
-        <v>513151.1061651764</v>
-      </c>
-      <c r="N2" t="n">
-        <v>513151.1061651766</v>
       </c>
       <c r="O2" t="n">
         <v>513151.1061651764</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086671</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007531</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007533</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007537</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.35417020408</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732804</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.899828698</v>
+        <v>-307592.8998286981</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858466</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858465</v>
+        <v>282374.9793858473</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094844</v>
+        <v>-136375.2285354572</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674119</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674117</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674118</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748189</v>
+        <v>212361.5887488466</v>
       </c>
       <c r="K6" t="n">
-        <v>341655.5036783154</v>
+        <v>341637.0099403809</v>
       </c>
       <c r="L6" t="n">
-        <v>374757.5746469562</v>
+        <v>374757.5746469564</v>
       </c>
       <c r="M6" t="n">
         <v>250299.4662139859</v>
       </c>
       <c r="N6" t="n">
+        <v>385100.481447823</v>
+      </c>
+      <c r="O6" t="n">
         <v>385100.4814478232</v>
       </c>
-      <c r="O6" t="n">
-        <v>385100.4814478231</v>
-      </c>
       <c r="P6" t="n">
-        <v>340937.8761449775</v>
+        <v>340937.8761449774</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,16 +26753,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.6572889008108</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>54.07684229920841</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380077</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.7893012822187</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.478382179942116</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>157.721567086496</v>
       </c>
       <c r="C7" t="n">
-        <v>79.51256655431365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481182</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>153.6118477624177</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>250.8850709382556</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853706</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491438</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822937</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633786</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.81250524001411</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188905</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372661</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078602</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644434</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492002</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302229</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175832</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678001</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.91048397019722</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031296</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355144</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713944</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296118</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>618.2977090519464</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221093</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>471.365945007355</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>373.2190363402982</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>628.5719244551402</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
